--- a/va_facility_data_2025-02-20/Fort Moore VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Moore%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Moore VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fort%20Moore%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rceafca4ba17246b3876e6a6562ff6351"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcefe8a56c96d4814863af32d8a251683"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9b7871dcca0643e4b8cab002c2177af4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R79b799e9eaf74c73ba56c692654cc977"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf3a88cddeb2a4208bd3d3ed1d3d26215"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf33f7856d1714a85ab55a88c4a1aabcb"/>
   </x:sheets>
 </x:workbook>
 </file>
